--- a/biology/Histoire de la zoologie et de la botanique/Julian_P._Hume/Julian_P._Hume.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Julian_P._Hume/Julian_P._Hume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julian Pender Hume (né le 3 mars 1960) est un paléontologue, artiste et écrivain britannique ayant vécu à Wickham, Hampshire. Né à Ashford, il a grandi à Portsmouth, England (en). 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa carrière a débuté dans l'art, où il se spécialisait en reconstructions d'espèces disparues. Par la suite, après des études en paléontologie à l'université de Portsmouth, il obtient un PhD de cette dernière.
 Hume a beaucoup voyagé par la suite, travaillant à l'extraction de fossiles. Ses principaux lieux de recherche se retrouvent aux Mascareignes (île Maurice, l'île de La Réunion et l'île Rodrigues). Il y a notamment étudié l'histoire du Dodo.
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
